--- a/data/576/DOS/M700011.xlsx
+++ b/data/576/DOS/M700011.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DOS" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,56 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>2021 Jul</t>
-  </si>
-  <si>
-    <t>2021 Aug</t>
-  </si>
-  <si>
-    <t>2021 Sep</t>
-  </si>
-  <si>
-    <t>2021 Oct</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Currency In Active Circulation  *</t>
-  </si>
-  <si>
-    <t>Demand Deposits</t>
-  </si>
-  <si>
-    <t>Quasi-money - Total</t>
-  </si>
-  <si>
-    <t>Quasi-money - Fixed Deposits</t>
-  </si>
-  <si>
-    <t>Quasi-money - S$ Negotiable Certificate Of Deposits (NCDs)</t>
-  </si>
-  <si>
-    <t>Quasi-money - Savings And Other Deposits</t>
-  </si>
-  <si>
-    <t>Net Deposits With Finance Companies</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,94 +366,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Jul</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Aug</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Sep</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Oct</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Nov</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2021 Dec</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2022 Jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>723186.2</v>
       </c>
       <c r="C2" t="n">
-        <v>730195.1</v>
+        <v>730203.8</v>
       </c>
       <c r="D2" t="n">
-        <v>735298.3</v>
+        <v>735317.4</v>
       </c>
       <c r="E2" t="n">
-        <v>735311.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>735323.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742107.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>747721.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>747527.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>710229.2</v>
       </c>
       <c r="C3" t="n">
-        <v>717310.5</v>
+        <v>717319.2</v>
       </c>
       <c r="D3" t="n">
-        <v>722274.7</v>
+        <v>722293.8</v>
       </c>
       <c r="E3" t="n">
-        <v>722271.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>722283.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>729384.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>734659.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>734286.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>276548.1</v>
       </c>
       <c r="C4" t="n">
-        <v>277463.6</v>
+        <v>277472.3</v>
       </c>
       <c r="D4" t="n">
-        <v>279011.1</v>
+        <v>279030.2</v>
       </c>
       <c r="E4" t="n">
-        <v>280707.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>280719.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>285310.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>287449.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>287082.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Currency In Active Circulation  *</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>55947.8</v>
       </c>
       <c r="C5" t="n">
-        <v>56140.9</v>
+        <v>56149.6</v>
       </c>
       <c r="D5" t="n">
-        <v>56307.9</v>
+        <v>56327</v>
       </c>
       <c r="E5" t="n">
-        <v>56650.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>56662.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56887</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57297.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>59269.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deposits</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>220600.3</v>
@@ -517,10 +538,21 @@
       <c r="E6" t="n">
         <v>224057.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+      <c r="F6" t="n">
+        <v>228423.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>230152.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>227812.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Quasi-money - Total</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>433681.1</v>
@@ -534,10 +566,21 @@
       <c r="E7" t="n">
         <v>441563.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
+      <c r="F7" t="n">
+        <v>444073.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>447210.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>447204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Quasi-money - Fixed Deposits</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>173107.6</v>
@@ -551,10 +594,21 @@
       <c r="E8" t="n">
         <v>175937.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+      <c r="F8" t="n">
+        <v>178038.7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>176495.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>175664.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Quasi-money - S$ Negotiable Certificate Of Deposits (NCDs)</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>15</v>
@@ -568,10 +622,21 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="F9" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Quasi-money - Savings And Other Deposits</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>260558.5</v>
@@ -585,10 +650,21 @@
       <c r="E10" t="n">
         <v>265626.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
+      <c r="F10" t="n">
+        <v>265977.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>270657</v>
+      </c>
+      <c r="H10" t="n">
+        <v>271513.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Net Deposits With Finance Companies</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>12957</v>
@@ -601,6 +677,15 @@
       </c>
       <c r="E11" t="n">
         <v>13040.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12722.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13062.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13241.7</v>
       </c>
     </row>
   </sheetData>
